--- a/Data/sampling_method_input_rmse_example.xlsx
+++ b/Data/sampling_method_input_rmse_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.volvocars.net/personal/xyang118_volvocars_com/Documents/Documents/glance_simulation/stats/Active-Sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_651BBA5BBE066B266B0F33A7AB7DEBD752AA9F66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6779591-956F-4046-9325-7E8ABCC3CBE6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_651BBA5BBE066B266B0F33A7AB7DEBD752AA9F66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EF49FD-4EE5-4CA8-BA4F-9BA352FD937F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>sim_order</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>severity sampling</t>
+  </si>
+  <si>
+    <t>minimising anticipated variance</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,9 +506,8 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f>"+ prediction uncertainty"</f>
-        <v>+ prediction uncertainty</v>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -544,9 +546,8 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="str">
-        <f>"+ prediction uncertainty"</f>
-        <v>+ prediction uncertainty</v>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>

--- a/Data/sampling_method_input_rmse_example.xlsx
+++ b/Data/sampling_method_input_rmse_example.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
